--- a/Documents/Template QLDA.xlsx
+++ b/Documents/Template QLDA.xlsx
@@ -1021,22 +1021,40 @@
     <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1048,34 +1066,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1622,8 +1622,8 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1649,28 +1649,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="106">
+      <c r="Q1" s="112">
         <v>45581</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="86" t="s">
@@ -1682,28 +1682,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="104">
+      <c r="Q2" s="110">
         <v>1</v>
       </c>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
     </row>
     <row r="3" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B3" s="86" t="s">
@@ -1802,102 +1802,102 @@
       <c r="A7" s="8"/>
       <c r="B7" s="23"/>
       <c r="E7" s="24"/>
-      <c r="I7" s="111">
+      <c r="I7" s="107">
         <f>I8</f>
         <v>45579</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109">
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105">
         <f>P8</f>
         <v>45586</v>
       </c>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109">
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105">
         <f>W8</f>
         <v>45593</v>
       </c>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109">
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105">
         <f>AD8</f>
         <v>45600</v>
       </c>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109">
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105">
         <f>AK8</f>
         <v>45607</v>
       </c>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109">
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105">
         <f>AR8</f>
         <v>45614</v>
       </c>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="109"/>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109">
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105">
         <f>AY8</f>
         <v>45621</v>
       </c>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="109"/>
-      <c r="BB7" s="109"/>
-      <c r="BC7" s="109"/>
-      <c r="BD7" s="109"/>
-      <c r="BE7" s="109"/>
-      <c r="BF7" s="109">
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105">
         <f>BF8</f>
         <v>45628</v>
       </c>
-      <c r="BG7" s="109"/>
-      <c r="BH7" s="109"/>
-      <c r="BI7" s="109"/>
-      <c r="BJ7" s="109"/>
-      <c r="BK7" s="109"/>
-      <c r="BL7" s="110"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="106"/>
     </row>
     <row r="8" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="108" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="25">
@@ -2126,12 +2126,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
       <c r="I9" s="28" t="str">
         <f t="shared" ref="I9:AN9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -2746,7 +2746,7 @@
       <c r="B15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="98" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="49"/>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="17" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="53" t="s">
@@ -2922,7 +2922,7 @@
     </row>
     <row r="18" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="115"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="53" t="s">
         <v>11</v>
       </c>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="25" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="103" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="63" t="s">
@@ -3471,11 +3471,11 @@
       <c r="D25" s="64">
         <v>0</v>
       </c>
-      <c r="E25" s="112">
+      <c r="E25" s="99">
         <f>E24</f>
         <v>45596</v>
       </c>
-      <c r="F25" s="112">
+      <c r="F25" s="99">
         <f>E25+10</f>
         <v>45606</v>
       </c>
@@ -3543,15 +3543,15 @@
     </row>
     <row r="26" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="117"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="64">
         <v>0</v>
       </c>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="11"/>
       <c r="H26" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3623,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="65">
         <f>E25</f>
@@ -3779,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="65">
         <f>F28</f>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="30" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="103" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="63" t="s">
@@ -3859,11 +3859,11 @@
       <c r="D30" s="64">
         <v>0</v>
       </c>
-      <c r="E30" s="112">
+      <c r="E30" s="99">
         <f>F25+1</f>
         <v>45607</v>
       </c>
-      <c r="F30" s="112">
+      <c r="F30" s="99">
         <f>E30+13</f>
         <v>45620</v>
       </c>
@@ -3928,15 +3928,15 @@
     </row>
     <row r="31" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="117"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="64">
         <v>0</v>
       </c>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
       <c r="G31" s="11"/>
       <c r="H31" s="5"/>
       <c r="I31" s="44"/>
@@ -4005,7 +4005,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="65">
         <f>E30</f>
@@ -4083,7 +4083,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="65">
         <f>F32+1</f>
@@ -4783,13 +4783,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
@@ -4798,16 +4801,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="23">
@@ -4908,35 +4908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5248,34 +5219,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5296,6 +5269,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>